--- a/data/financial_statements/socf/STLD.xlsx
+++ b/data/financial_statements/socf/STLD.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -113,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -478,144 +589,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>918475000</v>
+        <v>914000000</v>
       </c>
       <c r="C2">
-        <v>1214652000</v>
+        <v>1210000000</v>
       </c>
       <c r="D2">
-        <v>1107354000</v>
+        <v>1104000000</v>
       </c>
       <c r="E2">
-        <v>1095697000</v>
+        <v>1091000000</v>
       </c>
       <c r="F2">
-        <v>1000159000</v>
+        <v>991000000</v>
       </c>
       <c r="G2">
         <v>712203000</v>
@@ -721,23 +832,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>98714000</v>
+        <v>99000000</v>
       </c>
       <c r="C3">
-        <v>95701000</v>
+        <v>96000000</v>
       </c>
       <c r="D3">
-        <v>87546000</v>
+        <v>88000000</v>
       </c>
       <c r="E3">
-        <v>86280000</v>
+        <v>86000000</v>
       </c>
       <c r="F3">
-        <v>87407000</v>
+        <v>87000000</v>
       </c>
       <c r="G3">
         <v>87047000</v>
@@ -843,8 +954,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>3674000</v>
@@ -965,23 +1076,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>326731000</v>
+        <v>327000000</v>
       </c>
       <c r="C5">
-        <v>-297047000</v>
+        <v>-297000000</v>
       </c>
       <c r="D5">
-        <v>-447234000</v>
+        <v>-447000000</v>
       </c>
       <c r="E5">
-        <v>-23639000</v>
+        <v>-24000000</v>
       </c>
       <c r="F5">
-        <v>-321771000</v>
+        <v>-322000000</v>
       </c>
       <c r="G5">
         <v>-204561000</v>
@@ -1087,23 +1198,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>270628000</v>
+        <v>271000000</v>
       </c>
       <c r="C6">
-        <v>-130552000</v>
+        <v>-131000000</v>
       </c>
       <c r="D6">
-        <v>14315000</v>
+        <v>14000000</v>
       </c>
       <c r="E6">
-        <v>-633359000</v>
+        <v>-633000000</v>
       </c>
       <c r="F6">
-        <v>-412952000</v>
+        <v>-413000000</v>
       </c>
       <c r="G6">
         <v>-264935000</v>
@@ -1209,8 +1320,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>-264313000</v>
@@ -1331,23 +1442,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>149766000</v>
+        <v>-264000000</v>
       </c>
       <c r="C8">
-        <v>140023000</v>
+        <v>188000000</v>
       </c>
       <c r="D8">
-        <v>-258657000</v>
+        <v>-76000000</v>
       </c>
       <c r="E8">
-        <v>135974000</v>
+        <v>85000000</v>
       </c>
       <c r="F8">
-        <v>169817000</v>
+        <v>49000000</v>
       </c>
       <c r="G8">
         <v>111997000</v>
@@ -1453,8 +1564,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>8269000</v>
@@ -1575,23 +1686,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-15789000</v>
+        <v>-4000000</v>
       </c>
       <c r="C10">
-        <v>-12887000</v>
+        <v>-219000000</v>
       </c>
       <c r="D10">
-        <v>19402000</v>
+        <v>364000000</v>
       </c>
       <c r="E10">
-        <v>16327000</v>
+        <v>-42000000</v>
       </c>
       <c r="F10">
-        <v>-20361000</v>
+        <v>50000000</v>
       </c>
       <c r="G10">
         <v>-4285000</v>
@@ -1697,23 +1808,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>1496155000</v>
+        <v>1496000000</v>
       </c>
       <c r="C11">
-        <v>1001852000</v>
+        <v>1002000000</v>
       </c>
       <c r="D11">
-        <v>818968000</v>
+        <v>819000000</v>
       </c>
       <c r="E11">
-        <v>723899000</v>
+        <v>724000000</v>
       </c>
       <c r="F11">
-        <v>630816000</v>
+        <v>631000000</v>
       </c>
       <c r="G11">
         <v>587230000</v>
@@ -1819,8 +1930,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>-241229000</v>
@@ -1941,11 +2052,11 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>-47638000</v>
+        <v>-48000000</v>
       </c>
       <c r="I13">
         <v>-1000000</v>
@@ -2000,8 +2111,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>-233394000</v>
@@ -2059,23 +2170,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>4113000</v>
+        <v>-2000000</v>
       </c>
       <c r="C15">
-        <v>4817000</v>
+        <v>-55000000</v>
       </c>
       <c r="D15">
-        <v>410000</v>
+        <v>-23000000</v>
       </c>
       <c r="E15">
-        <v>3546000</v>
+        <v>-19000000</v>
       </c>
       <c r="F15">
-        <v>1024000</v>
+        <v>-4000000</v>
       </c>
       <c r="G15">
         <v>1859000</v>
@@ -2181,23 +2292,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>-518148000</v>
+        <v>-518000000</v>
       </c>
       <c r="C16">
-        <v>-510835000</v>
+        <v>-511000000</v>
       </c>
       <c r="D16">
-        <v>-381400000</v>
+        <v>-381000000</v>
       </c>
       <c r="E16">
-        <v>-200995000</v>
+        <v>-201000000</v>
       </c>
       <c r="F16">
-        <v>-213605000</v>
+        <v>-214000000</v>
       </c>
       <c r="G16">
         <v>-275347000</v>
@@ -2303,23 +2414,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>-14773900</v>
+        <v>-15000000</v>
       </c>
       <c r="C17">
-        <v>-31851100</v>
+        <v>-32000000</v>
       </c>
       <c r="D17">
-        <v>-29493000</v>
+        <v>-29000000</v>
       </c>
       <c r="E17">
-        <v>29980100</v>
+        <v>30000000</v>
       </c>
       <c r="F17">
-        <v>-39482000</v>
+        <v>-39000000</v>
       </c>
       <c r="G17">
         <v>10899000</v>
@@ -2425,8 +2536,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>-481676000</v>
@@ -2535,23 +2646,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>-62088000</v>
+        <v>-62000000</v>
       </c>
       <c r="C19">
-        <v>-64344000</v>
+        <v>-64000000</v>
       </c>
       <c r="D19">
-        <v>-50699000</v>
+        <v>-51000000</v>
       </c>
       <c r="E19">
-        <v>-51943000</v>
+        <v>-52000000</v>
       </c>
       <c r="F19">
-        <v>-53380000</v>
+        <v>-53000000</v>
       </c>
       <c r="G19">
         <v>-54916000</v>
@@ -2657,23 +2768,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>-6057000</v>
+        <v>-6000000</v>
       </c>
       <c r="C20">
-        <v>-60241000</v>
+        <v>-50000000</v>
       </c>
       <c r="D20">
-        <v>-22527000</v>
+        <v>5000000</v>
       </c>
       <c r="E20">
-        <v>-22955000</v>
+        <v>-2000000</v>
       </c>
       <c r="F20">
-        <v>-4776000</v>
+        <v>4000000</v>
       </c>
       <c r="G20">
         <v>-6094000</v>
@@ -2779,23 +2890,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>-564595000</v>
+        <v>-565000000</v>
       </c>
       <c r="C21">
-        <v>-673460000</v>
+        <v>-673000000</v>
       </c>
       <c r="D21">
-        <v>-491909000</v>
+        <v>-492000000</v>
       </c>
       <c r="E21">
-        <v>-374736000</v>
+        <v>-375000000</v>
       </c>
       <c r="F21">
-        <v>-435254000</v>
+        <v>-435000000</v>
       </c>
       <c r="G21">
         <v>-443309000</v>
@@ -2901,23 +3012,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>413412000</v>
+        <v>413000000</v>
       </c>
       <c r="C22">
-        <v>-182443000</v>
+        <v>-182000000</v>
       </c>
       <c r="D22">
-        <v>-54341000</v>
+        <v>-54000000</v>
       </c>
       <c r="E22">
-        <v>148168000</v>
+        <v>148000000</v>
       </c>
       <c r="F22">
-        <v>-18043000</v>
+        <v>-18000000</v>
       </c>
       <c r="G22">
         <v>-131426000</v>
@@ -3023,8 +3134,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3145,8 +3256,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>413412000</v>
@@ -3267,8 +3378,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>12093000</v>
@@ -3389,8 +3500,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>-62088000</v>
@@ -3511,23 +3622,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>0.0806</v>
+        <v>0.0808</v>
       </c>
       <c r="C27">
-        <v>0.137</v>
+        <v>0.1374</v>
       </c>
       <c r="D27">
-        <v>0.1178</v>
+        <v>0.1179</v>
       </c>
       <c r="E27">
-        <v>0.1463</v>
+        <v>0.1523</v>
       </c>
       <c r="F27">
-        <v>0.1671</v>
+        <v>0.1675</v>
       </c>
       <c r="G27">
         <v>0.1598</v>
@@ -3633,8 +3744,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>475292100</v>
@@ -3755,8 +3866,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>-233394000</v>
@@ -3814,8 +3925,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>-481676000</v>
@@ -3924,8 +4035,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>-481676000</v>
